--- a/ST_Steering_System/Steering_parameters.xlsx
+++ b/ST_Steering_System/Steering_parameters.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Etudes\Centrale\EPSA\Github\Valkyriz\ELIZ-2021\ST_Steering_System\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8AF89949-7F5B-4076-ACC5-2E26CE95F2A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB33A777-A3DE-4A53-B702-3171A55894E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4404" yWindow="312" windowWidth="17580" windowHeight="10872" xr2:uid="{B4C313FF-28E0-4C7A-A99F-92FD9B0C75B5}"/>
   </bookViews>
@@ -34,9 +34,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Bearing_offset (mm)</t>
+  </si>
+  <si>
+    <t>Steering_Column_Rint (mm)</t>
+  </si>
+  <si>
+    <t>Steering_Column_Rext (mm)</t>
+  </si>
+  <si>
+    <t>Tie_Rod_Rint (mm)</t>
+  </si>
+  <si>
+    <t>Tie_Rod_Rext (mm)</t>
   </si>
 </sst>
 </file>
@@ -389,14 +401,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{208179C2-6477-445C-8A37-FCD1401BB6A3}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="23.21875" customWidth="1"/>
     <col min="2" max="2" width="11.5546875" style="1"/>
   </cols>
   <sheetData>
@@ -408,6 +421,38 @@
         <v>30</v>
       </c>
     </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
